--- a/curation/draft/package15/R15_BC_SDTM_VS_updates.xlsx
+++ b/curation/draft/package15/R15_BC_SDTM_VS_updates.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_github\cdisc-org\COSMoS\curation\draft\package15\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B003D36-122F-4107-AD4D-1C35796E999E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18117564-5BD9-4FFC-A845-74CE1490EED4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="915" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BC_VS" sheetId="1" r:id="rId1"/>
@@ -1085,9 +1085,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="I1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G22" sqref="G22"/>
+      <selection pane="bottomLeft" activeCell="S1" sqref="S1:S1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="40.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2356,7 +2356,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="26" spans="1:17" ht="60" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
         <v>169</v>
       </c>
@@ -2409,7 +2409,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="27" spans="1:17" ht="60" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
         <v>169</v>
       </c>
@@ -2462,7 +2462,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="28" spans="1:17" ht="60" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="7" t="s">
         <v>169</v>
       </c>
@@ -2513,7 +2513,7 @@
       </c>
       <c r="Q28" s="9"/>
     </row>
-    <row r="29" spans="1:17" ht="45" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" s="7" t="s">
         <v>169</v>
       </c>
@@ -2566,7 +2566,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="30" spans="1:17" ht="75" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" s="7" t="s">
         <v>169</v>
       </c>
@@ -2619,7 +2619,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="31" spans="1:17" ht="45" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="7" t="s">
         <v>169</v>
       </c>
@@ -2672,7 +2672,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="32" spans="1:17" ht="45" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" s="7" t="s">
         <v>169</v>
       </c>
@@ -2723,7 +2723,7 @@
       </c>
       <c r="Q32" s="9"/>
     </row>
-    <row r="33" spans="1:17" ht="45" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
         <v>169</v>
       </c>
@@ -2776,7 +2776,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="34" spans="1:17" ht="45" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A34" s="7" t="s">
         <v>169</v>
       </c>
@@ -2827,7 +2827,7 @@
       </c>
       <c r="Q34" s="9"/>
     </row>
-    <row r="35" spans="1:17" ht="105" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:17" ht="45" x14ac:dyDescent="0.25">
       <c r="A35" s="7" t="s">
         <v>169</v>
       </c>
@@ -2987,11 +2987,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9496C4D5-5947-423F-AB5C-A7EF43995234}">
-  <dimension ref="A1:AI54"/>
+  <dimension ref="A1:AG54"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AG1" sqref="AG1"/>
+      <selection pane="bottomLeft" activeCell="AI5" sqref="AI5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="40.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3032,7 +3032,7 @@
     <col min="34" max="16384" width="40.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" s="4" customFormat="1" ht="39" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:33" s="4" customFormat="1" ht="39" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3133,7 +3133,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="2" spans="1:35" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:33" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>169</v>
       </c>
@@ -3210,7 +3210,7 @@
       <c r="AF2" s="7"/>
       <c r="AG2" s="7"/>
     </row>
-    <row r="3" spans="1:35" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:33" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
         <v>169</v>
       </c>
@@ -3285,7 +3285,7 @@
       <c r="AF3" s="7"/>
       <c r="AG3" s="7"/>
     </row>
-    <row r="4" spans="1:35" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:33" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
         <v>169</v>
       </c>
@@ -3364,7 +3364,7 @@
       </c>
       <c r="AG4" s="7"/>
     </row>
-    <row r="5" spans="1:35" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:33" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
         <v>169</v>
       </c>
@@ -3440,7 +3440,7 @@
       </c>
       <c r="AG5" s="7"/>
     </row>
-    <row r="6" spans="1:35" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:33" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
         <v>169</v>
       </c>
@@ -3515,7 +3515,7 @@
       </c>
       <c r="AG6" s="7"/>
     </row>
-    <row r="7" spans="1:35" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:33" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
         <v>169</v>
       </c>
@@ -3590,7 +3590,7 @@
       </c>
       <c r="AG7" s="7"/>
     </row>
-    <row r="8" spans="1:35" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:33" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
         <v>169</v>
       </c>
@@ -3667,7 +3667,7 @@
       </c>
       <c r="AG8" s="7"/>
     </row>
-    <row r="9" spans="1:35" s="4" customFormat="1" ht="255" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:33" s="4" customFormat="1" ht="255" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
         <v>169</v>
       </c>
@@ -3746,7 +3746,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="10" spans="1:35" s="4" customFormat="1" ht="120" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:33" s="4" customFormat="1" ht="120" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
         <v>169</v>
       </c>
@@ -3823,7 +3823,7 @@
       <c r="AF10" s="7"/>
       <c r="AG10" s="7"/>
     </row>
-    <row r="11" spans="1:35" s="4" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:33" s="4" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
         <v>169</v>
       </c>
@@ -3902,7 +3902,7 @@
       <c r="AF11" s="7"/>
       <c r="AG11" s="7"/>
     </row>
-    <row r="12" spans="1:35" s="4" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:33" s="4" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
         <v>169</v>
       </c>
@@ -3971,7 +3971,7 @@
       <c r="AF12" s="7"/>
       <c r="AG12" s="7"/>
     </row>
-    <row r="13" spans="1:35" ht="45" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:33" ht="45" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
         <v>169</v>
       </c>
@@ -4047,7 +4047,7 @@
       </c>
       <c r="AF13" s="7"/>
     </row>
-    <row r="14" spans="1:35" ht="30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:33" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="s">
         <v>169</v>
       </c>
@@ -4121,7 +4121,7 @@
       <c r="AE14" s="7"/>
       <c r="AF14" s="7"/>
     </row>
-    <row r="15" spans="1:35" ht="45" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:33" ht="45" x14ac:dyDescent="0.25">
       <c r="A15" s="10" t="s">
         <v>169</v>
       </c>
@@ -4199,7 +4199,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="16" spans="1:35" ht="45" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:33" ht="45" x14ac:dyDescent="0.25">
       <c r="A16" s="10" t="s">
         <v>169</v>
       </c>
@@ -4275,9 +4275,8 @@
         <v>49</v>
       </c>
       <c r="AG16" s="7"/>
-      <c r="AI16" s="4"/>
-    </row>
-    <row r="17" spans="1:35" ht="45" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:33" ht="45" x14ac:dyDescent="0.25">
       <c r="A17" s="10" t="s">
         <v>169</v>
       </c>
@@ -4351,7 +4350,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="18" spans="1:35" ht="45" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:33" ht="45" x14ac:dyDescent="0.25">
       <c r="A18" s="10" t="s">
         <v>169</v>
       </c>
@@ -4425,7 +4424,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="19" spans="1:35" ht="45" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:33" ht="45" x14ac:dyDescent="0.25">
       <c r="A19" s="10" t="s">
         <v>169</v>
       </c>
@@ -4501,9 +4500,8 @@
         <v>49</v>
       </c>
       <c r="AG19" s="7"/>
-      <c r="AI19" s="4"/>
-    </row>
-    <row r="20" spans="1:35" ht="180" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:33" ht="180" x14ac:dyDescent="0.25">
       <c r="A20" s="10" t="s">
         <v>169</v>
       </c>
@@ -4582,7 +4580,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="21" spans="1:35" ht="120" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:33" ht="120" x14ac:dyDescent="0.25">
       <c r="A21" s="10" t="s">
         <v>169</v>
       </c>
@@ -4658,7 +4656,7 @@
       </c>
       <c r="AF21" s="7"/>
     </row>
-    <row r="22" spans="1:35" ht="75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:33" ht="75" x14ac:dyDescent="0.25">
       <c r="A22" s="10" t="s">
         <v>169</v>
       </c>
@@ -4736,7 +4734,7 @@
       </c>
       <c r="AF22" s="7"/>
     </row>
-    <row r="23" spans="1:35" ht="60" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:33" ht="60" x14ac:dyDescent="0.25">
       <c r="A23" s="10" t="s">
         <v>169</v>
       </c>
@@ -4804,7 +4802,7 @@
       <c r="AE23" s="7"/>
       <c r="AF23" s="7"/>
     </row>
-    <row r="24" spans="1:35" ht="45" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:33" ht="45" x14ac:dyDescent="0.25">
       <c r="A24" s="10" t="s">
         <v>169</v>
       </c>
@@ -4881,7 +4879,7 @@
       <c r="AF24" s="7"/>
       <c r="AG24" s="7"/>
     </row>
-    <row r="25" spans="1:35" ht="30" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:33" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" s="10" t="s">
         <v>169</v>
       </c>
@@ -4956,7 +4954,7 @@
       <c r="AF25" s="7"/>
       <c r="AG25" s="7"/>
     </row>
-    <row r="26" spans="1:35" ht="45" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:33" ht="45" x14ac:dyDescent="0.25">
       <c r="A26" s="10" t="s">
         <v>169</v>
       </c>
@@ -5035,7 +5033,7 @@
       </c>
       <c r="AG26" s="7"/>
     </row>
-    <row r="27" spans="1:35" ht="45" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:33" ht="45" x14ac:dyDescent="0.25">
       <c r="A27" s="10" t="s">
         <v>169</v>
       </c>
@@ -5114,7 +5112,7 @@
       </c>
       <c r="AG27" s="7"/>
     </row>
-    <row r="28" spans="1:35" ht="45" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:33" ht="45" x14ac:dyDescent="0.25">
       <c r="A28" s="10" t="s">
         <v>169</v>
       </c>
@@ -5189,7 +5187,7 @@
       </c>
       <c r="AG28" s="7"/>
     </row>
-    <row r="29" spans="1:35" ht="45" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:33" ht="45" x14ac:dyDescent="0.25">
       <c r="A29" s="10" t="s">
         <v>169</v>
       </c>
@@ -5264,7 +5262,7 @@
       </c>
       <c r="AG29" s="7"/>
     </row>
-    <row r="30" spans="1:35" ht="45" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:33" ht="45" x14ac:dyDescent="0.25">
       <c r="A30" s="10" t="s">
         <v>169</v>
       </c>
@@ -5343,7 +5341,7 @@
       </c>
       <c r="AG30" s="7"/>
     </row>
-    <row r="31" spans="1:35" ht="180" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:33" ht="180" x14ac:dyDescent="0.25">
       <c r="A31" s="10" t="s">
         <v>169</v>
       </c>
@@ -5422,7 +5420,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="32" spans="1:35" ht="120" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:33" ht="120" x14ac:dyDescent="0.25">
       <c r="A32" s="10" t="s">
         <v>169</v>
       </c>

--- a/curation/draft/package15/R15_BC_SDTM_VS_updates.xlsx
+++ b/curation/draft/package15/R15_BC_SDTM_VS_updates.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_github\cdisc-org\COSMoS\curation\draft\package15\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Linda\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18117564-5BD9-4FFC-A845-74CE1490EED4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDD7820B-5884-4411-BDEE-74664CA9E73E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="915" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="13866" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BC_VS" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">BC_VS!$A$1:$R$35</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">SDTM_VS!$A$1:$AG$54</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1669" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1669" uniqueCount="192">
   <si>
     <t>package_date</t>
   </si>
@@ -586,9 +586,6 @@
     <t>8480-6</t>
   </si>
   <si>
-    <t>Auscultation automatic;Auscaltation manual;Cuff-manual palpated;Doppler;Oscillometry;Arterial line;Venous line;Continuous noninvasive arterial pressure (CNAP)</t>
-  </si>
-  <si>
     <t>Unit of Pressure</t>
   </si>
   <si>
@@ -614,13 +611,41 @@
   </si>
   <si>
     <t>change_history</t>
+  </si>
+  <si>
+    <r>
+      <t>Auscultation automatic;Auscu</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>l</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>tation manual;Cuff-manual palpated;Doppler;Oscillometry;Arterial line;Venous line;Continuous noninvasive arterial pressure (CNAP)</t>
+    </r>
+  </si>
+  <si>
+    <t>Auscultation automatic;Auscultation manual;Cuff-manual palpated;Doppler;Oscillometry;Arterial line;Venous line;Continuous noninvasive arterial pressure (CNAP)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -671,6 +696,13 @@
       <sz val="9.5"/>
       <color rgb="FF0000FF"/>
       <name val="Albany AMT"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="6">
@@ -1085,35 +1117,35 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R35"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="S1" sqref="S1:S1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Q31" sqref="Q31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="40.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="40.703125" defaultRowHeight="14.35"/>
   <cols>
-    <col min="1" max="1" width="12.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.42578125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="38.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="39.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.1171875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.41015625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="7.87890625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.87890625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="38.87890625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="39.1171875" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="15" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="73.5703125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="6.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="33.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="92.7109375" style="1" customWidth="1"/>
-    <col min="18" max="18" width="40.7109375" style="12"/>
-    <col min="19" max="16384" width="40.7109375" style="1"/>
+    <col min="9" max="9" width="73.5859375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="6.5859375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.29296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="4.87890625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.87890625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.87890625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="33.87890625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.1171875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="92.703125" style="1" customWidth="1"/>
+    <col min="18" max="18" width="40.703125" style="12"/>
+    <col min="19" max="16384" width="40.703125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="16" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" s="16" customFormat="1" ht="14.1" customHeight="1">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -1169,7 +1201,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="2" spans="1:18" ht="90" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" ht="43">
       <c r="A2" s="7" t="s">
         <v>169</v>
       </c>
@@ -1219,7 +1251,7 @@
       <c r="Q2" s="9"/>
       <c r="R2" s="11"/>
     </row>
-    <row r="3" spans="1:18" ht="90" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" ht="43">
       <c r="A3" s="7" t="s">
         <v>169</v>
       </c>
@@ -1271,7 +1303,7 @@
       </c>
       <c r="R3" s="11"/>
     </row>
-    <row r="4" spans="1:18" ht="90" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" ht="43">
       <c r="A4" s="7" t="s">
         <v>169</v>
       </c>
@@ -1323,7 +1355,7 @@
       </c>
       <c r="R4" s="13"/>
     </row>
-    <row r="5" spans="1:18" ht="90" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" ht="43">
       <c r="A5" s="7" t="s">
         <v>169</v>
       </c>
@@ -1373,7 +1405,7 @@
       <c r="Q5" s="9"/>
       <c r="R5" s="11"/>
     </row>
-    <row r="6" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" ht="43">
       <c r="A6" s="9" t="s">
         <v>169</v>
       </c>
@@ -1418,7 +1450,7 @@
       </c>
       <c r="Q6" s="9"/>
     </row>
-    <row r="7" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" ht="43">
       <c r="A7" s="9" t="s">
         <v>169</v>
       </c>
@@ -1465,7 +1497,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="8" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" ht="43">
       <c r="A8" s="9" t="s">
         <v>169</v>
       </c>
@@ -1509,10 +1541,10 @@
         <v>123</v>
       </c>
       <c r="Q8" s="9" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" ht="43">
       <c r="A9" s="9" t="s">
         <v>169</v>
       </c>
@@ -1559,7 +1591,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="10" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" ht="43">
       <c r="A10" s="9" t="s">
         <v>169</v>
       </c>
@@ -1606,7 +1638,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="11" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" ht="43">
       <c r="A11" s="9" t="s">
         <v>169</v>
       </c>
@@ -1651,7 +1683,7 @@
       </c>
       <c r="Q11" s="9"/>
     </row>
-    <row r="12" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" ht="43">
       <c r="A12" s="9" t="s">
         <v>169</v>
       </c>
@@ -1698,7 +1730,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="13" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18">
       <c r="A13" s="7" t="s">
         <v>169</v>
       </c>
@@ -1749,7 +1781,7 @@
       </c>
       <c r="Q13" s="9"/>
     </row>
-    <row r="14" spans="1:18" ht="120" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" ht="43">
       <c r="A14" s="7" t="s">
         <v>169</v>
       </c>
@@ -1799,10 +1831,10 @@
         <v>123</v>
       </c>
       <c r="Q14" s="9" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="7" t="s">
         <v>169</v>
       </c>
@@ -1855,7 +1887,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="16" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18">
       <c r="A16" s="7" t="s">
         <v>169</v>
       </c>
@@ -1908,7 +1940,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="17" spans="1:17" ht="45" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17">
       <c r="A17" s="7" t="s">
         <v>169</v>
       </c>
@@ -1961,7 +1993,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="18" spans="1:17" ht="45" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17">
       <c r="A18" s="7" t="s">
         <v>169</v>
       </c>
@@ -2014,7 +2046,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="19" spans="1:17" ht="45" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17">
       <c r="A19" s="7" t="s">
         <v>169</v>
       </c>
@@ -2065,7 +2097,7 @@
       </c>
       <c r="Q19" s="9"/>
     </row>
-    <row r="20" spans="1:17" ht="75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:17" ht="28.7">
       <c r="A20" s="7" t="s">
         <v>169</v>
       </c>
@@ -2107,7 +2139,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="21" spans="1:17" ht="75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:17" ht="28.7">
       <c r="A21" s="7" t="s">
         <v>169</v>
       </c>
@@ -2146,7 +2178,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="22" spans="1:17" ht="75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:17" ht="30">
       <c r="A22" s="7" t="s">
         <v>169</v>
       </c>
@@ -2196,10 +2228,10 @@
         <v>123</v>
       </c>
       <c r="Q22" s="9" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17" ht="105" x14ac:dyDescent="0.25">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" ht="43">
       <c r="A23" s="7" t="s">
         <v>169</v>
       </c>
@@ -2249,10 +2281,10 @@
         <v>123</v>
       </c>
       <c r="Q23" s="9" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17" ht="60" x14ac:dyDescent="0.25">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" ht="28.7">
       <c r="A24" s="7" t="s">
         <v>169</v>
       </c>
@@ -2303,7 +2335,7 @@
       </c>
       <c r="Q24" s="9"/>
     </row>
-    <row r="25" spans="1:17" ht="60" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:17" ht="28.7">
       <c r="A25" s="7" t="s">
         <v>169</v>
       </c>
@@ -2347,16 +2379,16 @@
         <v>88</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="P25" s="7" t="s">
         <v>123</v>
       </c>
       <c r="Q25" s="9" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" ht="28.7">
       <c r="A26" s="7" t="s">
         <v>169</v>
       </c>
@@ -2406,10 +2438,10 @@
         <v>123</v>
       </c>
       <c r="Q26" s="9" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" ht="28.7">
       <c r="A27" s="7" t="s">
         <v>169</v>
       </c>
@@ -2462,7 +2494,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="28" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:17" ht="28.7">
       <c r="A28" s="7" t="s">
         <v>169</v>
       </c>
@@ -2513,7 +2545,7 @@
       </c>
       <c r="Q28" s="9"/>
     </row>
-    <row r="29" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:17" ht="28.7">
       <c r="A29" s="7" t="s">
         <v>169</v>
       </c>
@@ -2539,7 +2571,7 @@
         <v>115</v>
       </c>
       <c r="I29" s="9" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="J29" s="7" t="s">
         <v>117</v>
@@ -2548,7 +2580,7 @@
         <v>118</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="M29" s="7" t="s">
         <v>99</v>
@@ -2566,7 +2598,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="30" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:17" ht="28.7">
       <c r="A30" s="7" t="s">
         <v>169</v>
       </c>
@@ -2592,7 +2624,7 @@
         <v>115</v>
       </c>
       <c r="I30" s="9" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="J30" s="7" t="s">
         <v>117</v>
@@ -2601,7 +2633,7 @@
         <v>118</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="M30" s="7" t="s">
         <v>142</v>
@@ -2616,10 +2648,10 @@
         <v>123</v>
       </c>
       <c r="Q30" s="9" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" ht="28.7">
       <c r="A31" s="7" t="s">
         <v>169</v>
       </c>
@@ -2645,7 +2677,7 @@
         <v>115</v>
       </c>
       <c r="I31" s="9" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="J31" s="7" t="s">
         <v>117</v>
@@ -2654,7 +2686,7 @@
         <v>118</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="M31" s="7" t="s">
         <v>96</v>
@@ -2669,10 +2701,10 @@
         <v>123</v>
       </c>
       <c r="Q31" s="9" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" ht="28.7">
       <c r="A32" s="7" t="s">
         <v>169</v>
       </c>
@@ -2698,7 +2730,7 @@
         <v>115</v>
       </c>
       <c r="I32" s="9" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="J32" s="7" t="s">
         <v>117</v>
@@ -2707,7 +2739,7 @@
         <v>118</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="M32" s="7" t="s">
         <v>42</v>
@@ -2723,7 +2755,7 @@
       </c>
       <c r="Q32" s="9"/>
     </row>
-    <row r="33" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:17" ht="28.7">
       <c r="A33" s="7" t="s">
         <v>169</v>
       </c>
@@ -2749,7 +2781,7 @@
         <v>115</v>
       </c>
       <c r="I33" s="9" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="J33" s="7" t="s">
         <v>117</v>
@@ -2758,7 +2790,7 @@
         <v>118</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="M33" s="7" t="s">
         <v>88</v>
@@ -2767,16 +2799,16 @@
         <v>88</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="P33" s="7" t="s">
         <v>123</v>
       </c>
       <c r="Q33" s="9" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="34" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" ht="28.7">
       <c r="A34" s="7" t="s">
         <v>169</v>
       </c>
@@ -2802,7 +2834,7 @@
         <v>115</v>
       </c>
       <c r="I34" s="9" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="J34" s="7" t="s">
         <v>117</v>
@@ -2811,7 +2843,7 @@
         <v>118</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="M34" s="7" t="s">
         <v>69</v>
@@ -2827,7 +2859,7 @@
       </c>
       <c r="Q34" s="9"/>
     </row>
-    <row r="35" spans="1:17" ht="45" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:17" ht="43">
       <c r="A35" s="7" t="s">
         <v>169</v>
       </c>
@@ -2853,7 +2885,7 @@
         <v>115</v>
       </c>
       <c r="I35" s="9" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="J35" s="7" t="s">
         <v>117</v>
@@ -2862,7 +2894,7 @@
         <v>118</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="M35" s="7" t="s">
         <v>90</v>
@@ -2877,7 +2909,7 @@
         <v>123</v>
       </c>
       <c r="Q35" s="9" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
   </sheetData>
@@ -2989,50 +3021,50 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9496C4D5-5947-423F-AB5C-A7EF43995234}">
   <dimension ref="A1:AG54"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="AI5" sqref="AI5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="40.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="40.703125" defaultRowHeight="14.35"/>
   <cols>
-    <col min="1" max="1" width="15.140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="9.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="11.85546875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="11.42578125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.1171875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.5859375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="11.87890625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="11.41015625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="10.703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.87890625" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="18" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="24.5703125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="17.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.28515625" style="1" customWidth="1"/>
-    <col min="13" max="13" width="12.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="24.5859375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="17.1171875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.5859375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.41015625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.29296875" style="1" customWidth="1"/>
+    <col min="13" max="13" width="12.703125" style="1" customWidth="1"/>
+    <col min="14" max="14" width="13.1171875" style="1" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="27" style="1" customWidth="1"/>
-    <col min="16" max="16" width="12.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.29296875" style="1" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="10.85546875" style="1" customWidth="1"/>
-    <col min="19" max="19" width="11.28515625" style="1" customWidth="1"/>
-    <col min="20" max="20" width="12.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="16.7109375" style="1" customWidth="1"/>
-    <col min="22" max="22" width="11.28515625" style="1" customWidth="1"/>
-    <col min="23" max="23" width="8.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="5.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="13.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="16.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="11.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.87890625" style="1" customWidth="1"/>
+    <col min="19" max="19" width="11.29296875" style="1" customWidth="1"/>
+    <col min="20" max="20" width="12.1171875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="16.703125" style="1" customWidth="1"/>
+    <col min="22" max="22" width="11.29296875" style="1" customWidth="1"/>
+    <col min="23" max="23" width="8.29296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="5.5859375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="5.703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="13.87890625" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="16.1171875" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.29296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="9.29296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="11.41015625" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="9.703125" style="1" bestFit="1" customWidth="1"/>
     <col min="32" max="32" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="26.42578125" style="1" customWidth="1"/>
-    <col min="34" max="16384" width="40.7109375" style="1"/>
+    <col min="33" max="33" width="26.41015625" style="1" customWidth="1"/>
+    <col min="34" max="16384" width="40.703125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" s="4" customFormat="1" ht="39" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:33" s="4" customFormat="1" ht="25.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3130,10 +3162,10 @@
         <v>41</v>
       </c>
       <c r="AG1" s="3" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="2" spans="1:33" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="2" spans="1:33" s="4" customFormat="1" ht="28.7">
       <c r="A2" s="10" t="s">
         <v>169</v>
       </c>
@@ -3210,7 +3242,7 @@
       <c r="AF2" s="7"/>
       <c r="AG2" s="7"/>
     </row>
-    <row r="3" spans="1:33" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:33" s="4" customFormat="1" ht="28.7">
       <c r="A3" s="10" t="s">
         <v>169</v>
       </c>
@@ -3285,7 +3317,7 @@
       <c r="AF3" s="7"/>
       <c r="AG3" s="7"/>
     </row>
-    <row r="4" spans="1:33" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:33" s="4" customFormat="1" ht="28.7">
       <c r="A4" s="10" t="s">
         <v>169</v>
       </c>
@@ -3364,7 +3396,7 @@
       </c>
       <c r="AG4" s="7"/>
     </row>
-    <row r="5" spans="1:33" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:33" s="4" customFormat="1" ht="28.7">
       <c r="A5" s="10" t="s">
         <v>169</v>
       </c>
@@ -3440,7 +3472,7 @@
       </c>
       <c r="AG5" s="7"/>
     </row>
-    <row r="6" spans="1:33" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:33" s="4" customFormat="1" ht="28.7">
       <c r="A6" s="10" t="s">
         <v>169</v>
       </c>
@@ -3515,7 +3547,7 @@
       </c>
       <c r="AG6" s="7"/>
     </row>
-    <row r="7" spans="1:33" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:33" s="4" customFormat="1" ht="28.7">
       <c r="A7" s="10" t="s">
         <v>169</v>
       </c>
@@ -3590,7 +3622,7 @@
       </c>
       <c r="AG7" s="7"/>
     </row>
-    <row r="8" spans="1:33" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:33" s="4" customFormat="1" ht="28.7">
       <c r="A8" s="10" t="s">
         <v>169</v>
       </c>
@@ -3667,7 +3699,7 @@
       </c>
       <c r="AG8" s="7"/>
     </row>
-    <row r="9" spans="1:33" s="4" customFormat="1" ht="255" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:33" s="4" customFormat="1" ht="157.69999999999999">
       <c r="A9" s="10" t="s">
         <v>169</v>
       </c>
@@ -3746,7 +3778,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="10" spans="1:33" s="4" customFormat="1" ht="120" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:33" s="4" customFormat="1" ht="71.7">
       <c r="A10" s="10" t="s">
         <v>169</v>
       </c>
@@ -3823,7 +3855,7 @@
       <c r="AF10" s="7"/>
       <c r="AG10" s="7"/>
     </row>
-    <row r="11" spans="1:33" s="4" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:33" s="4" customFormat="1" ht="57.35">
       <c r="A11" s="10" t="s">
         <v>169</v>
       </c>
@@ -3902,7 +3934,7 @@
       <c r="AF11" s="7"/>
       <c r="AG11" s="7"/>
     </row>
-    <row r="12" spans="1:33" s="4" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:33" s="4" customFormat="1" ht="43">
       <c r="A12" s="10" t="s">
         <v>169</v>
       </c>
@@ -3971,7 +4003,7 @@
       <c r="AF12" s="7"/>
       <c r="AG12" s="7"/>
     </row>
-    <row r="13" spans="1:33" ht="45" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:33" ht="28.7">
       <c r="A13" s="10" t="s">
         <v>169</v>
       </c>
@@ -4047,7 +4079,7 @@
       </c>
       <c r="AF13" s="7"/>
     </row>
-    <row r="14" spans="1:33" ht="30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:33" ht="28.7">
       <c r="A14" s="10" t="s">
         <v>169</v>
       </c>
@@ -4121,7 +4153,7 @@
       <c r="AE14" s="7"/>
       <c r="AF14" s="7"/>
     </row>
-    <row r="15" spans="1:33" ht="45" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:33" ht="28.7">
       <c r="A15" s="10" t="s">
         <v>169</v>
       </c>
@@ -4199,7 +4231,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="16" spans="1:33" ht="45" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:33" ht="28.7">
       <c r="A16" s="10" t="s">
         <v>169</v>
       </c>
@@ -4276,7 +4308,7 @@
       </c>
       <c r="AG16" s="7"/>
     </row>
-    <row r="17" spans="1:33" ht="45" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:33" ht="28.7">
       <c r="A17" s="10" t="s">
         <v>169</v>
       </c>
@@ -4350,7 +4382,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="18" spans="1:33" ht="45" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:33" ht="28.7">
       <c r="A18" s="10" t="s">
         <v>169</v>
       </c>
@@ -4424,7 +4456,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="19" spans="1:33" ht="45" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:33" ht="28.7">
       <c r="A19" s="10" t="s">
         <v>169</v>
       </c>
@@ -4501,7 +4533,7 @@
       </c>
       <c r="AG19" s="7"/>
     </row>
-    <row r="20" spans="1:33" ht="180" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:33" ht="157.69999999999999">
       <c r="A20" s="10" t="s">
         <v>169</v>
       </c>
@@ -4580,7 +4612,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="21" spans="1:33" ht="120" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:33" ht="71.7">
       <c r="A21" s="10" t="s">
         <v>169</v>
       </c>
@@ -4656,7 +4688,7 @@
       </c>
       <c r="AF21" s="7"/>
     </row>
-    <row r="22" spans="1:33" ht="75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:33" ht="57.35">
       <c r="A22" s="10" t="s">
         <v>169</v>
       </c>
@@ -4734,7 +4766,7 @@
       </c>
       <c r="AF22" s="7"/>
     </row>
-    <row r="23" spans="1:33" ht="60" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:33" ht="43">
       <c r="A23" s="10" t="s">
         <v>169</v>
       </c>
@@ -4802,7 +4834,7 @@
       <c r="AE23" s="7"/>
       <c r="AF23" s="7"/>
     </row>
-    <row r="24" spans="1:33" ht="45" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:33" ht="28.7">
       <c r="A24" s="10" t="s">
         <v>169</v>
       </c>
@@ -4879,7 +4911,7 @@
       <c r="AF24" s="7"/>
       <c r="AG24" s="7"/>
     </row>
-    <row r="25" spans="1:33" ht="30" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:33" ht="28.7">
       <c r="A25" s="10" t="s">
         <v>169</v>
       </c>
@@ -4954,7 +4986,7 @@
       <c r="AF25" s="7"/>
       <c r="AG25" s="7"/>
     </row>
-    <row r="26" spans="1:33" ht="45" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:33" ht="28.7">
       <c r="A26" s="10" t="s">
         <v>169</v>
       </c>
@@ -5033,7 +5065,7 @@
       </c>
       <c r="AG26" s="7"/>
     </row>
-    <row r="27" spans="1:33" ht="45" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:33" ht="28.7">
       <c r="A27" s="10" t="s">
         <v>169</v>
       </c>
@@ -5112,7 +5144,7 @@
       </c>
       <c r="AG27" s="7"/>
     </row>
-    <row r="28" spans="1:33" ht="45" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:33" ht="28.7">
       <c r="A28" s="10" t="s">
         <v>169</v>
       </c>
@@ -5187,7 +5219,7 @@
       </c>
       <c r="AG28" s="7"/>
     </row>
-    <row r="29" spans="1:33" ht="45" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:33" ht="28.7">
       <c r="A29" s="10" t="s">
         <v>169</v>
       </c>
@@ -5262,7 +5294,7 @@
       </c>
       <c r="AG29" s="7"/>
     </row>
-    <row r="30" spans="1:33" ht="45" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:33" ht="28.7">
       <c r="A30" s="10" t="s">
         <v>169</v>
       </c>
@@ -5341,7 +5373,7 @@
       </c>
       <c r="AG30" s="7"/>
     </row>
-    <row r="31" spans="1:33" ht="180" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:33" ht="172">
       <c r="A31" s="10" t="s">
         <v>169</v>
       </c>
@@ -5420,7 +5452,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="32" spans="1:33" ht="120" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:33" ht="86">
       <c r="A32" s="10" t="s">
         <v>169</v>
       </c>
@@ -5497,7 +5529,7 @@
       <c r="AF32" s="7"/>
       <c r="AG32" s="7"/>
     </row>
-    <row r="33" spans="1:33" ht="75" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:33" ht="57.35">
       <c r="A33" s="10" t="s">
         <v>169</v>
       </c>
@@ -5576,7 +5608,7 @@
       <c r="AF33" s="7"/>
       <c r="AG33" s="7"/>
     </row>
-    <row r="34" spans="1:33" ht="60" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:33" ht="43">
       <c r="A34" s="10" t="s">
         <v>169</v>
       </c>
@@ -5645,7 +5677,7 @@
       <c r="AF34" s="7"/>
       <c r="AG34" s="7"/>
     </row>
-    <row r="35" spans="1:33" ht="45" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:33" ht="28.7">
       <c r="A35" s="10" t="s">
         <v>169</v>
       </c>
@@ -5721,7 +5753,7 @@
       </c>
       <c r="AF35" s="7"/>
     </row>
-    <row r="36" spans="1:33" ht="30" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:33" ht="28.7">
       <c r="A36" s="10" t="s">
         <v>169</v>
       </c>
@@ -5795,7 +5827,7 @@
       <c r="AE36" s="7"/>
       <c r="AF36" s="7"/>
     </row>
-    <row r="37" spans="1:33" ht="45" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:33" ht="28.7">
       <c r="A37" s="10" t="s">
         <v>169</v>
       </c>
@@ -5873,7 +5905,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="38" spans="1:33" ht="45" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:33" ht="28.7">
       <c r="A38" s="10" t="s">
         <v>169</v>
       </c>
@@ -5951,7 +5983,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="39" spans="1:33" ht="45" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:33" ht="28.7">
       <c r="A39" s="10" t="s">
         <v>169</v>
       </c>
@@ -6025,7 +6057,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="40" spans="1:33" ht="45" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:33" ht="28.7">
       <c r="A40" s="10" t="s">
         <v>169</v>
       </c>
@@ -6099,7 +6131,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="41" spans="1:33" ht="45" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:33" ht="28.7">
       <c r="A41" s="10" t="s">
         <v>169</v>
       </c>
@@ -6177,7 +6209,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="42" spans="1:33" ht="180" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:33" ht="172">
       <c r="A42" s="10" t="s">
         <v>169</v>
       </c>
@@ -6256,7 +6288,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="43" spans="1:33" ht="120" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:33" ht="86">
       <c r="A43" s="10" t="s">
         <v>169</v>
       </c>
@@ -6332,7 +6364,7 @@
       </c>
       <c r="AF43" s="7"/>
     </row>
-    <row r="44" spans="1:33" ht="75" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:33" ht="57.35">
       <c r="A44" s="10" t="s">
         <v>169</v>
       </c>
@@ -6410,7 +6442,7 @@
       </c>
       <c r="AF44" s="7"/>
     </row>
-    <row r="45" spans="1:33" ht="60" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:33" ht="43">
       <c r="A45" s="10" t="s">
         <v>169</v>
       </c>
@@ -6478,7 +6510,7 @@
       <c r="AE45" s="7"/>
       <c r="AF45" s="7"/>
     </row>
-    <row r="46" spans="1:33" ht="45" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:33" ht="28.7">
       <c r="A46" s="10" t="s">
         <v>169</v>
       </c>
@@ -6554,7 +6586,7 @@
       </c>
       <c r="AF46" s="7"/>
     </row>
-    <row r="47" spans="1:33" ht="30" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:33" ht="28.7">
       <c r="A47" s="10" t="s">
         <v>169</v>
       </c>
@@ -6628,7 +6660,7 @@
       <c r="AE47" s="7"/>
       <c r="AF47" s="7"/>
     </row>
-    <row r="48" spans="1:33" ht="45" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:33" ht="28.7">
       <c r="A48" s="10" t="s">
         <v>169</v>
       </c>
@@ -6710,7 +6742,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="49" spans="1:33" ht="45" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:33" ht="28.7">
       <c r="A49" s="10" t="s">
         <v>169</v>
       </c>
@@ -6788,7 +6820,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="50" spans="1:33" ht="45" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:33" ht="28.7">
       <c r="A50" s="10" t="s">
         <v>169</v>
       </c>
@@ -6866,7 +6898,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="51" spans="1:33" ht="45" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:33" ht="28.7">
       <c r="A51" s="10" t="s">
         <v>169</v>
       </c>
@@ -6944,7 +6976,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="52" spans="1:33" ht="45" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:33" ht="28.7">
       <c r="A52" s="10" t="s">
         <v>169</v>
       </c>
@@ -7018,7 +7050,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="53" spans="1:33" ht="120" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:33" ht="71.7">
       <c r="A53" s="10" t="s">
         <v>169</v>
       </c>
@@ -7099,7 +7131,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="54" spans="1:33" ht="60" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:33" ht="43">
       <c r="A54" s="10" t="s">
         <v>169</v>
       </c>

--- a/curation/draft/package15/R15_BC_SDTM_VS_updates.xlsx
+++ b/curation/draft/package15/R15_BC_SDTM_VS_updates.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Linda\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_github\cdisc-org\COSMoS\curation\draft\package15\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDD7820B-5884-4411-BDEE-74664CA9E73E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{382B0979-12FB-4FBE-8F29-585C8AEF9879}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="13866" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BC_VS" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1669" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1669" uniqueCount="194">
   <si>
     <t>package_date</t>
   </si>
@@ -640,12 +640,18 @@
   <si>
     <t>Auscultation automatic;Auscultation manual;Cuff-manual palpated;Doppler;Oscillometry;Arterial line;Venous line;Continuous noninvasive arterial pressure (CNAP)</t>
   </si>
+  <si>
+    <t>Vital Signs;Body Measurements</t>
+  </si>
+  <si>
+    <t>Vital Signs;Blood Pressure</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -703,6 +709,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="6">
@@ -792,7 +804,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -835,6 +847,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1118,34 +1131,34 @@
   <dimension ref="A1:R35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q31" sqref="Q31"/>
+      <pane ySplit="1" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="40.703125" defaultRowHeight="14.35"/>
+  <sheetFormatPr defaultColWidth="40.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.1171875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.41015625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="7.87890625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.87890625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="38.87890625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="39.1171875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.42578125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="38.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="39.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="15" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="73.5859375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="6.5859375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.29296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="4.87890625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="6.87890625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.87890625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="33.87890625" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9.1171875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="92.703125" style="1" customWidth="1"/>
-    <col min="18" max="18" width="40.703125" style="12"/>
-    <col min="19" max="16384" width="40.703125" style="1"/>
+    <col min="9" max="9" width="73.5703125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="6.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="33.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="92.7109375" style="1" customWidth="1"/>
+    <col min="18" max="18" width="40.7109375" style="12"/>
+    <col min="19" max="16384" width="40.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="16" customFormat="1" ht="14.1" customHeight="1">
+    <row r="1" spans="1:18" s="16" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -1201,7 +1214,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="2" spans="1:18" ht="43">
+    <row r="2" spans="1:18" ht="60" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>169</v>
       </c>
@@ -1216,7 +1229,7 @@
       </c>
       <c r="E2" s="7"/>
       <c r="F2" s="9" t="s">
-        <v>113</v>
+        <v>192</v>
       </c>
       <c r="G2" s="7" t="s">
         <v>114</v>
@@ -1251,7 +1264,7 @@
       <c r="Q2" s="9"/>
       <c r="R2" s="11"/>
     </row>
-    <row r="3" spans="1:18" ht="43">
+    <row r="3" spans="1:18" ht="60" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>169</v>
       </c>
@@ -1266,7 +1279,7 @@
       </c>
       <c r="E3" s="7"/>
       <c r="F3" s="9" t="s">
-        <v>113</v>
+        <v>192</v>
       </c>
       <c r="G3" s="7" t="s">
         <v>114</v>
@@ -1303,7 +1316,7 @@
       </c>
       <c r="R3" s="11"/>
     </row>
-    <row r="4" spans="1:18" ht="43">
+    <row r="4" spans="1:18" ht="60" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>169</v>
       </c>
@@ -1318,7 +1331,7 @@
       </c>
       <c r="E4" s="7"/>
       <c r="F4" s="9" t="s">
-        <v>113</v>
+        <v>192</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>114</v>
@@ -1355,7 +1368,7 @@
       </c>
       <c r="R4" s="13"/>
     </row>
-    <row r="5" spans="1:18" ht="43">
+    <row r="5" spans="1:18" ht="60" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>169</v>
       </c>
@@ -1370,7 +1383,7 @@
       </c>
       <c r="E5" s="7"/>
       <c r="F5" s="9" t="s">
-        <v>113</v>
+        <v>192</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>114</v>
@@ -1405,7 +1418,7 @@
       <c r="Q5" s="9"/>
       <c r="R5" s="11"/>
     </row>
-    <row r="6" spans="1:18" ht="43">
+    <row r="6" spans="1:18" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
         <v>169</v>
       </c>
@@ -1450,7 +1463,7 @@
       </c>
       <c r="Q6" s="9"/>
     </row>
-    <row r="7" spans="1:18" ht="43">
+    <row r="7" spans="1:18" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
         <v>169</v>
       </c>
@@ -1497,7 +1510,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="8" spans="1:18" ht="43">
+    <row r="8" spans="1:18" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
         <v>169</v>
       </c>
@@ -1544,7 +1557,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="9" spans="1:18" ht="43">
+    <row r="9" spans="1:18" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
         <v>169</v>
       </c>
@@ -1591,7 +1604,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="10" spans="1:18" ht="43">
+    <row r="10" spans="1:18" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
         <v>169</v>
       </c>
@@ -1638,7 +1651,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="11" spans="1:18" ht="43">
+    <row r="11" spans="1:18" ht="45" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
         <v>169</v>
       </c>
@@ -1683,7 +1696,7 @@
       </c>
       <c r="Q11" s="9"/>
     </row>
-    <row r="12" spans="1:18" ht="43">
+    <row r="12" spans="1:18" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
         <v>169</v>
       </c>
@@ -1730,7 +1743,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="13" spans="1:18">
+    <row r="13" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>169</v>
       </c>
@@ -1781,7 +1794,7 @@
       </c>
       <c r="Q13" s="9"/>
     </row>
-    <row r="14" spans="1:18" ht="43">
+    <row r="14" spans="1:18" ht="45" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>169</v>
       </c>
@@ -1834,7 +1847,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="15" spans="1:18">
+    <row r="15" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>169</v>
       </c>
@@ -1887,7 +1900,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="16" spans="1:18">
+    <row r="16" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
         <v>169</v>
       </c>
@@ -1940,7 +1953,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="17" spans="1:17">
+    <row r="17" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
         <v>169</v>
       </c>
@@ -1993,7 +2006,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="18" spans="1:17">
+    <row r="18" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
         <v>169</v>
       </c>
@@ -2046,7 +2059,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="19" spans="1:17">
+    <row r="19" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
         <v>169</v>
       </c>
@@ -2097,7 +2110,7 @@
       </c>
       <c r="Q19" s="9"/>
     </row>
-    <row r="20" spans="1:17" ht="28.7">
+    <row r="20" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
         <v>169</v>
       </c>
@@ -2111,8 +2124,8 @@
         <v>158</v>
       </c>
       <c r="E20" s="7"/>
-      <c r="F20" s="9" t="s">
-        <v>113</v>
+      <c r="F20" s="18" t="s">
+        <v>192</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>159</v>
@@ -2139,7 +2152,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="21" spans="1:17" ht="28.7">
+    <row r="21" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
         <v>169</v>
       </c>
@@ -2153,8 +2166,8 @@
         <v>158</v>
       </c>
       <c r="E21" s="7"/>
-      <c r="F21" s="9" t="s">
-        <v>113</v>
+      <c r="F21" s="18" t="s">
+        <v>192</v>
       </c>
       <c r="G21" s="7" t="s">
         <v>159</v>
@@ -2178,7 +2191,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="22" spans="1:17" ht="30">
+    <row r="22" spans="1:17" ht="30.75" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
         <v>169</v>
       </c>
@@ -2194,8 +2207,8 @@
       <c r="E22" s="8" t="s">
         <v>178</v>
       </c>
-      <c r="F22" s="9" t="s">
-        <v>113</v>
+      <c r="F22" s="18" t="s">
+        <v>193</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>85</v>
@@ -2231,7 +2244,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="23" spans="1:17" ht="43">
+    <row r="23" spans="1:17" ht="45" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
         <v>169</v>
       </c>
@@ -2247,8 +2260,8 @@
       <c r="E23" s="8" t="s">
         <v>178</v>
       </c>
-      <c r="F23" s="9" t="s">
-        <v>113</v>
+      <c r="F23" s="18" t="s">
+        <v>193</v>
       </c>
       <c r="G23" s="7" t="s">
         <v>85</v>
@@ -2284,7 +2297,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="24" spans="1:17" ht="28.7">
+    <row r="24" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
         <v>169</v>
       </c>
@@ -2300,8 +2313,8 @@
       <c r="E24" s="8" t="s">
         <v>178</v>
       </c>
-      <c r="F24" s="9" t="s">
-        <v>113</v>
+      <c r="F24" s="18" t="s">
+        <v>193</v>
       </c>
       <c r="G24" s="7" t="s">
         <v>85</v>
@@ -2335,7 +2348,7 @@
       </c>
       <c r="Q24" s="9"/>
     </row>
-    <row r="25" spans="1:17" ht="28.7">
+    <row r="25" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
         <v>169</v>
       </c>
@@ -2351,8 +2364,8 @@
       <c r="E25" s="8" t="s">
         <v>178</v>
       </c>
-      <c r="F25" s="9" t="s">
-        <v>113</v>
+      <c r="F25" s="18" t="s">
+        <v>193</v>
       </c>
       <c r="G25" s="7" t="s">
         <v>85</v>
@@ -2388,7 +2401,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="26" spans="1:17" ht="28.7">
+    <row r="26" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
         <v>169</v>
       </c>
@@ -2404,8 +2417,8 @@
       <c r="E26" s="8" t="s">
         <v>178</v>
       </c>
-      <c r="F26" s="9" t="s">
-        <v>113</v>
+      <c r="F26" s="18" t="s">
+        <v>193</v>
       </c>
       <c r="G26" s="7" t="s">
         <v>85</v>
@@ -2441,7 +2454,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="27" spans="1:17" ht="28.7">
+    <row r="27" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
         <v>169</v>
       </c>
@@ -2457,8 +2470,8 @@
       <c r="E27" s="8" t="s">
         <v>178</v>
       </c>
-      <c r="F27" s="9" t="s">
-        <v>113</v>
+      <c r="F27" s="18" t="s">
+        <v>193</v>
       </c>
       <c r="G27" s="7" t="s">
         <v>85</v>
@@ -2494,7 +2507,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="28" spans="1:17" ht="28.7">
+    <row r="28" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="7" t="s">
         <v>169</v>
       </c>
@@ -2510,8 +2523,8 @@
       <c r="E28" s="8" t="s">
         <v>178</v>
       </c>
-      <c r="F28" s="9" t="s">
-        <v>113</v>
+      <c r="F28" s="18" t="s">
+        <v>193</v>
       </c>
       <c r="G28" s="7" t="s">
         <v>85</v>
@@ -2545,7 +2558,7 @@
       </c>
       <c r="Q28" s="9"/>
     </row>
-    <row r="29" spans="1:17" ht="28.7">
+    <row r="29" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" s="7" t="s">
         <v>169</v>
       </c>
@@ -2561,8 +2574,8 @@
       <c r="E29" s="8" t="s">
         <v>178</v>
       </c>
-      <c r="F29" s="9" t="s">
-        <v>113</v>
+      <c r="F29" s="18" t="s">
+        <v>193</v>
       </c>
       <c r="G29" s="7" t="s">
         <v>108</v>
@@ -2598,7 +2611,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="30" spans="1:17" ht="28.7">
+    <row r="30" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" s="7" t="s">
         <v>169</v>
       </c>
@@ -2614,8 +2627,8 @@
       <c r="E30" s="8" t="s">
         <v>178</v>
       </c>
-      <c r="F30" s="9" t="s">
-        <v>113</v>
+      <c r="F30" s="18" t="s">
+        <v>193</v>
       </c>
       <c r="G30" s="7" t="s">
         <v>108</v>
@@ -2651,7 +2664,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="31" spans="1:17" ht="28.7">
+    <row r="31" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="7" t="s">
         <v>169</v>
       </c>
@@ -2667,8 +2680,8 @@
       <c r="E31" s="8" t="s">
         <v>178</v>
       </c>
-      <c r="F31" s="9" t="s">
-        <v>113</v>
+      <c r="F31" s="18" t="s">
+        <v>193</v>
       </c>
       <c r="G31" s="7" t="s">
         <v>108</v>
@@ -2704,7 +2717,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="32" spans="1:17" ht="28.7">
+    <row r="32" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" s="7" t="s">
         <v>169</v>
       </c>
@@ -2720,8 +2733,8 @@
       <c r="E32" s="8" t="s">
         <v>178</v>
       </c>
-      <c r="F32" s="9" t="s">
-        <v>113</v>
+      <c r="F32" s="18" t="s">
+        <v>193</v>
       </c>
       <c r="G32" s="7" t="s">
         <v>108</v>
@@ -2755,7 +2768,7 @@
       </c>
       <c r="Q32" s="9"/>
     </row>
-    <row r="33" spans="1:17" ht="28.7">
+    <row r="33" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
         <v>169</v>
       </c>
@@ -2771,8 +2784,8 @@
       <c r="E33" s="8" t="s">
         <v>178</v>
       </c>
-      <c r="F33" s="9" t="s">
-        <v>113</v>
+      <c r="F33" s="18" t="s">
+        <v>193</v>
       </c>
       <c r="G33" s="7" t="s">
         <v>108</v>
@@ -2808,7 +2821,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="34" spans="1:17" ht="28.7">
+    <row r="34" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A34" s="7" t="s">
         <v>169</v>
       </c>
@@ -2824,8 +2837,8 @@
       <c r="E34" s="8" t="s">
         <v>178</v>
       </c>
-      <c r="F34" s="9" t="s">
-        <v>113</v>
+      <c r="F34" s="18" t="s">
+        <v>193</v>
       </c>
       <c r="G34" s="7" t="s">
         <v>108</v>
@@ -2859,7 +2872,7 @@
       </c>
       <c r="Q34" s="9"/>
     </row>
-    <row r="35" spans="1:17" ht="43">
+    <row r="35" spans="1:17" ht="45" x14ac:dyDescent="0.25">
       <c r="A35" s="7" t="s">
         <v>169</v>
       </c>
@@ -2875,8 +2888,8 @@
       <c r="E35" s="8" t="s">
         <v>178</v>
       </c>
-      <c r="F35" s="9" t="s">
-        <v>113</v>
+      <c r="F35" s="18" t="s">
+        <v>193</v>
       </c>
       <c r="G35" s="7" t="s">
         <v>108</v>
@@ -3026,45 +3039,45 @@
       <selection pane="bottomLeft" activeCell="AI5" sqref="AI5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="40.703125" defaultRowHeight="14.35"/>
+  <sheetFormatPr defaultColWidth="40.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.1171875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="9.5859375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="11.87890625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="11.41015625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="10.703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.87890625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="18" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="24.5859375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="17.1171875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.5859375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.41015625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.29296875" style="1" customWidth="1"/>
-    <col min="13" max="13" width="12.703125" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.1171875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="24.5703125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="17.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.28515625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="12.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="13.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="27" style="1" customWidth="1"/>
-    <col min="16" max="16" width="12.29296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="10.87890625" style="1" customWidth="1"/>
-    <col min="19" max="19" width="11.29296875" style="1" customWidth="1"/>
-    <col min="20" max="20" width="12.1171875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="16.703125" style="1" customWidth="1"/>
-    <col min="22" max="22" width="11.29296875" style="1" customWidth="1"/>
-    <col min="23" max="23" width="8.29296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="5.5859375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="5.703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="13.87890625" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="16.1171875" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.29296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="9.29296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="11.41015625" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="9.703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.85546875" style="1" customWidth="1"/>
+    <col min="19" max="19" width="11.28515625" style="1" customWidth="1"/>
+    <col min="20" max="20" width="12.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="16.7109375" style="1" customWidth="1"/>
+    <col min="22" max="22" width="11.28515625" style="1" customWidth="1"/>
+    <col min="23" max="23" width="8.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="5.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="13.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="16.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="11.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="32" max="32" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="26.41015625" style="1" customWidth="1"/>
-    <col min="34" max="16384" width="40.703125" style="1"/>
+    <col min="33" max="33" width="26.42578125" style="1" customWidth="1"/>
+    <col min="34" max="16384" width="40.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" s="4" customFormat="1" ht="25.35">
+    <row r="1" spans="1:33" s="4" customFormat="1" ht="39" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3165,7 +3178,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="2" spans="1:33" s="4" customFormat="1" ht="28.7">
+    <row r="2" spans="1:33" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>169</v>
       </c>
@@ -3242,7 +3255,7 @@
       <c r="AF2" s="7"/>
       <c r="AG2" s="7"/>
     </row>
-    <row r="3" spans="1:33" s="4" customFormat="1" ht="28.7">
+    <row r="3" spans="1:33" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
         <v>169</v>
       </c>
@@ -3317,7 +3330,7 @@
       <c r="AF3" s="7"/>
       <c r="AG3" s="7"/>
     </row>
-    <row r="4" spans="1:33" s="4" customFormat="1" ht="28.7">
+    <row r="4" spans="1:33" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
         <v>169</v>
       </c>
@@ -3396,7 +3409,7 @@
       </c>
       <c r="AG4" s="7"/>
     </row>
-    <row r="5" spans="1:33" s="4" customFormat="1" ht="28.7">
+    <row r="5" spans="1:33" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
         <v>169</v>
       </c>
@@ -3472,7 +3485,7 @@
       </c>
       <c r="AG5" s="7"/>
     </row>
-    <row r="6" spans="1:33" s="4" customFormat="1" ht="28.7">
+    <row r="6" spans="1:33" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
         <v>169</v>
       </c>
@@ -3547,7 +3560,7 @@
       </c>
       <c r="AG6" s="7"/>
     </row>
-    <row r="7" spans="1:33" s="4" customFormat="1" ht="28.7">
+    <row r="7" spans="1:33" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
         <v>169</v>
       </c>
@@ -3622,7 +3635,7 @@
       </c>
       <c r="AG7" s="7"/>
     </row>
-    <row r="8" spans="1:33" s="4" customFormat="1" ht="28.7">
+    <row r="8" spans="1:33" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
         <v>169</v>
       </c>
@@ -3699,7 +3712,7 @@
       </c>
       <c r="AG8" s="7"/>
     </row>
-    <row r="9" spans="1:33" s="4" customFormat="1" ht="157.69999999999999">
+    <row r="9" spans="1:33" s="4" customFormat="1" ht="180" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
         <v>169</v>
       </c>
@@ -3778,7 +3791,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="10" spans="1:33" s="4" customFormat="1" ht="71.7">
+    <row r="10" spans="1:33" s="4" customFormat="1" ht="120" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
         <v>169</v>
       </c>
@@ -3855,7 +3868,7 @@
       <c r="AF10" s="7"/>
       <c r="AG10" s="7"/>
     </row>
-    <row r="11" spans="1:33" s="4" customFormat="1" ht="57.35">
+    <row r="11" spans="1:33" s="4" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
         <v>169</v>
       </c>
@@ -3934,7 +3947,7 @@
       <c r="AF11" s="7"/>
       <c r="AG11" s="7"/>
     </row>
-    <row r="12" spans="1:33" s="4" customFormat="1" ht="43">
+    <row r="12" spans="1:33" s="4" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
         <v>169</v>
       </c>
@@ -4003,7 +4016,7 @@
       <c r="AF12" s="7"/>
       <c r="AG12" s="7"/>
     </row>
-    <row r="13" spans="1:33" ht="28.7">
+    <row r="13" spans="1:33" ht="45" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
         <v>169</v>
       </c>
@@ -4079,7 +4092,7 @@
       </c>
       <c r="AF13" s="7"/>
     </row>
-    <row r="14" spans="1:33" ht="28.7">
+    <row r="14" spans="1:33" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="s">
         <v>169</v>
       </c>
@@ -4153,7 +4166,7 @@
       <c r="AE14" s="7"/>
       <c r="AF14" s="7"/>
     </row>
-    <row r="15" spans="1:33" ht="28.7">
+    <row r="15" spans="1:33" ht="45" x14ac:dyDescent="0.25">
       <c r="A15" s="10" t="s">
         <v>169</v>
       </c>
@@ -4231,7 +4244,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="16" spans="1:33" ht="28.7">
+    <row r="16" spans="1:33" ht="45" x14ac:dyDescent="0.25">
       <c r="A16" s="10" t="s">
         <v>169</v>
       </c>
@@ -4308,7 +4321,7 @@
       </c>
       <c r="AG16" s="7"/>
     </row>
-    <row r="17" spans="1:33" ht="28.7">
+    <row r="17" spans="1:33" ht="45" x14ac:dyDescent="0.25">
       <c r="A17" s="10" t="s">
         <v>169</v>
       </c>
@@ -4382,7 +4395,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="18" spans="1:33" ht="28.7">
+    <row r="18" spans="1:33" ht="45" x14ac:dyDescent="0.25">
       <c r="A18" s="10" t="s">
         <v>169</v>
       </c>
@@ -4456,7 +4469,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="19" spans="1:33" ht="28.7">
+    <row r="19" spans="1:33" ht="45" x14ac:dyDescent="0.25">
       <c r="A19" s="10" t="s">
         <v>169</v>
       </c>
@@ -4533,7 +4546,7 @@
       </c>
       <c r="AG19" s="7"/>
     </row>
-    <row r="20" spans="1:33" ht="157.69999999999999">
+    <row r="20" spans="1:33" ht="180" x14ac:dyDescent="0.25">
       <c r="A20" s="10" t="s">
         <v>169</v>
       </c>
@@ -4612,7 +4625,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="21" spans="1:33" ht="71.7">
+    <row r="21" spans="1:33" ht="120" x14ac:dyDescent="0.25">
       <c r="A21" s="10" t="s">
         <v>169</v>
       </c>
@@ -4688,7 +4701,7 @@
       </c>
       <c r="AF21" s="7"/>
     </row>
-    <row r="22" spans="1:33" ht="57.35">
+    <row r="22" spans="1:33" ht="75" x14ac:dyDescent="0.25">
       <c r="A22" s="10" t="s">
         <v>169</v>
       </c>
@@ -4766,7 +4779,7 @@
       </c>
       <c r="AF22" s="7"/>
     </row>
-    <row r="23" spans="1:33" ht="43">
+    <row r="23" spans="1:33" ht="60" x14ac:dyDescent="0.25">
       <c r="A23" s="10" t="s">
         <v>169</v>
       </c>
@@ -4834,7 +4847,7 @@
       <c r="AE23" s="7"/>
       <c r="AF23" s="7"/>
     </row>
-    <row r="24" spans="1:33" ht="28.7">
+    <row r="24" spans="1:33" ht="45" x14ac:dyDescent="0.25">
       <c r="A24" s="10" t="s">
         <v>169</v>
       </c>
@@ -4911,7 +4924,7 @@
       <c r="AF24" s="7"/>
       <c r="AG24" s="7"/>
     </row>
-    <row r="25" spans="1:33" ht="28.7">
+    <row r="25" spans="1:33" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" s="10" t="s">
         <v>169</v>
       </c>
@@ -4986,7 +4999,7 @@
       <c r="AF25" s="7"/>
       <c r="AG25" s="7"/>
     </row>
-    <row r="26" spans="1:33" ht="28.7">
+    <row r="26" spans="1:33" ht="45" x14ac:dyDescent="0.25">
       <c r="A26" s="10" t="s">
         <v>169</v>
       </c>
@@ -5065,7 +5078,7 @@
       </c>
       <c r="AG26" s="7"/>
     </row>
-    <row r="27" spans="1:33" ht="28.7">
+    <row r="27" spans="1:33" ht="45" x14ac:dyDescent="0.25">
       <c r="A27" s="10" t="s">
         <v>169</v>
       </c>
@@ -5144,7 +5157,7 @@
       </c>
       <c r="AG27" s="7"/>
     </row>
-    <row r="28" spans="1:33" ht="28.7">
+    <row r="28" spans="1:33" ht="45" x14ac:dyDescent="0.25">
       <c r="A28" s="10" t="s">
         <v>169</v>
       </c>
@@ -5219,7 +5232,7 @@
       </c>
       <c r="AG28" s="7"/>
     </row>
-    <row r="29" spans="1:33" ht="28.7">
+    <row r="29" spans="1:33" ht="45" x14ac:dyDescent="0.25">
       <c r="A29" s="10" t="s">
         <v>169</v>
       </c>
@@ -5294,7 +5307,7 @@
       </c>
       <c r="AG29" s="7"/>
     </row>
-    <row r="30" spans="1:33" ht="28.7">
+    <row r="30" spans="1:33" ht="45" x14ac:dyDescent="0.25">
       <c r="A30" s="10" t="s">
         <v>169</v>
       </c>
@@ -5373,7 +5386,7 @@
       </c>
       <c r="AG30" s="7"/>
     </row>
-    <row r="31" spans="1:33" ht="172">
+    <row r="31" spans="1:33" ht="180" x14ac:dyDescent="0.25">
       <c r="A31" s="10" t="s">
         <v>169</v>
       </c>
@@ -5452,7 +5465,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="32" spans="1:33" ht="86">
+    <row r="32" spans="1:33" ht="120" x14ac:dyDescent="0.25">
       <c r="A32" s="10" t="s">
         <v>169</v>
       </c>
@@ -5529,7 +5542,7 @@
       <c r="AF32" s="7"/>
       <c r="AG32" s="7"/>
     </row>
-    <row r="33" spans="1:33" ht="57.35">
+    <row r="33" spans="1:33" ht="75" x14ac:dyDescent="0.25">
       <c r="A33" s="10" t="s">
         <v>169</v>
       </c>
@@ -5608,7 +5621,7 @@
       <c r="AF33" s="7"/>
       <c r="AG33" s="7"/>
     </row>
-    <row r="34" spans="1:33" ht="43">
+    <row r="34" spans="1:33" ht="60" x14ac:dyDescent="0.25">
       <c r="A34" s="10" t="s">
         <v>169</v>
       </c>
@@ -5677,7 +5690,7 @@
       <c r="AF34" s="7"/>
       <c r="AG34" s="7"/>
     </row>
-    <row r="35" spans="1:33" ht="28.7">
+    <row r="35" spans="1:33" ht="45" x14ac:dyDescent="0.25">
       <c r="A35" s="10" t="s">
         <v>169</v>
       </c>
@@ -5753,7 +5766,7 @@
       </c>
       <c r="AF35" s="7"/>
     </row>
-    <row r="36" spans="1:33" ht="28.7">
+    <row r="36" spans="1:33" ht="30" x14ac:dyDescent="0.25">
       <c r="A36" s="10" t="s">
         <v>169</v>
       </c>
@@ -5827,7 +5840,7 @@
       <c r="AE36" s="7"/>
       <c r="AF36" s="7"/>
     </row>
-    <row r="37" spans="1:33" ht="28.7">
+    <row r="37" spans="1:33" ht="45" x14ac:dyDescent="0.25">
       <c r="A37" s="10" t="s">
         <v>169</v>
       </c>
@@ -5905,7 +5918,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="38" spans="1:33" ht="28.7">
+    <row r="38" spans="1:33" ht="45" x14ac:dyDescent="0.25">
       <c r="A38" s="10" t="s">
         <v>169</v>
       </c>
@@ -5983,7 +5996,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="39" spans="1:33" ht="28.7">
+    <row r="39" spans="1:33" ht="45" x14ac:dyDescent="0.25">
       <c r="A39" s="10" t="s">
         <v>169</v>
       </c>
@@ -6057,7 +6070,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="40" spans="1:33" ht="28.7">
+    <row r="40" spans="1:33" ht="45" x14ac:dyDescent="0.25">
       <c r="A40" s="10" t="s">
         <v>169</v>
       </c>
@@ -6131,7 +6144,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="41" spans="1:33" ht="28.7">
+    <row r="41" spans="1:33" ht="45" x14ac:dyDescent="0.25">
       <c r="A41" s="10" t="s">
         <v>169</v>
       </c>
@@ -6209,7 +6222,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="42" spans="1:33" ht="172">
+    <row r="42" spans="1:33" ht="180" x14ac:dyDescent="0.25">
       <c r="A42" s="10" t="s">
         <v>169</v>
       </c>
@@ -6288,7 +6301,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="43" spans="1:33" ht="86">
+    <row r="43" spans="1:33" ht="120" x14ac:dyDescent="0.25">
       <c r="A43" s="10" t="s">
         <v>169</v>
       </c>
@@ -6364,7 +6377,7 @@
       </c>
       <c r="AF43" s="7"/>
     </row>
-    <row r="44" spans="1:33" ht="57.35">
+    <row r="44" spans="1:33" ht="75" x14ac:dyDescent="0.25">
       <c r="A44" s="10" t="s">
         <v>169</v>
       </c>
@@ -6442,7 +6455,7 @@
       </c>
       <c r="AF44" s="7"/>
     </row>
-    <row r="45" spans="1:33" ht="43">
+    <row r="45" spans="1:33" ht="60" x14ac:dyDescent="0.25">
       <c r="A45" s="10" t="s">
         <v>169</v>
       </c>
@@ -6510,7 +6523,7 @@
       <c r="AE45" s="7"/>
       <c r="AF45" s="7"/>
     </row>
-    <row r="46" spans="1:33" ht="28.7">
+    <row r="46" spans="1:33" ht="45" x14ac:dyDescent="0.25">
       <c r="A46" s="10" t="s">
         <v>169</v>
       </c>
@@ -6586,7 +6599,7 @@
       </c>
       <c r="AF46" s="7"/>
     </row>
-    <row r="47" spans="1:33" ht="28.7">
+    <row r="47" spans="1:33" ht="30" x14ac:dyDescent="0.25">
       <c r="A47" s="10" t="s">
         <v>169</v>
       </c>
@@ -6660,7 +6673,7 @@
       <c r="AE47" s="7"/>
       <c r="AF47" s="7"/>
     </row>
-    <row r="48" spans="1:33" ht="28.7">
+    <row r="48" spans="1:33" ht="45" x14ac:dyDescent="0.25">
       <c r="A48" s="10" t="s">
         <v>169</v>
       </c>
@@ -6742,7 +6755,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="49" spans="1:33" ht="28.7">
+    <row r="49" spans="1:33" ht="45" x14ac:dyDescent="0.25">
       <c r="A49" s="10" t="s">
         <v>169</v>
       </c>
@@ -6820,7 +6833,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="50" spans="1:33" ht="28.7">
+    <row r="50" spans="1:33" ht="45" x14ac:dyDescent="0.25">
       <c r="A50" s="10" t="s">
         <v>169</v>
       </c>
@@ -6898,7 +6911,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="51" spans="1:33" ht="28.7">
+    <row r="51" spans="1:33" ht="45" x14ac:dyDescent="0.25">
       <c r="A51" s="10" t="s">
         <v>169</v>
       </c>
@@ -6976,7 +6989,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="52" spans="1:33" ht="28.7">
+    <row r="52" spans="1:33" ht="45" x14ac:dyDescent="0.25">
       <c r="A52" s="10" t="s">
         <v>169</v>
       </c>
@@ -7050,7 +7063,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="53" spans="1:33" ht="71.7">
+    <row r="53" spans="1:33" ht="120" x14ac:dyDescent="0.25">
       <c r="A53" s="10" t="s">
         <v>169</v>
       </c>
@@ -7131,7 +7144,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="54" spans="1:33" ht="43">
+    <row r="54" spans="1:33" ht="60" x14ac:dyDescent="0.25">
       <c r="A54" s="10" t="s">
         <v>169</v>
       </c>
